--- a/UI/DataCollected.xlsx
+++ b/UI/DataCollected.xlsx
@@ -359,49 +359,49 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.1545844078063965</v>
+        <v>0.1650168895721436</v>
       </c>
       <c r="C1">
-        <v>0.2373690605163574</v>
+        <v>0.1823763847351074</v>
       </c>
       <c r="D1">
-        <v>0.08477425575256348</v>
+        <v>0.312694787979126</v>
       </c>
       <c r="E1">
-        <v>0.13165283203125</v>
+        <v>0.2322466373443604</v>
       </c>
       <c r="F1">
-        <v>0.2772598266601562</v>
+        <v>0.1002087593078613</v>
       </c>
       <c r="G1">
-        <v>0.1535875797271729</v>
+        <v>0.1402652263641357</v>
       </c>
       <c r="H1">
-        <v>0.01495814323425293</v>
+        <v>-0.1370875835418701</v>
       </c>
       <c r="I1">
-        <v>-0.02294182777404785</v>
+        <v>-0.08343601226806641</v>
       </c>
       <c r="J1">
-        <v>-0.07080793380737305</v>
+        <v>-0.2282617092132568</v>
       </c>
       <c r="K1">
-        <v>-0.05884981155395508</v>
+        <v>-0.08824062347412109</v>
       </c>
       <c r="L1">
-        <v>-0.1256632804870605</v>
+        <v>-0.09113287925720215</v>
       </c>
       <c r="M1">
-        <v>0.5295889377593994</v>
+        <v>0.4435493946075439</v>
       </c>
       <c r="N1">
-        <v>0.5784564018249512</v>
+        <v>0.4275882244110107</v>
       </c>
       <c r="O1">
-        <v>0.3919534683227539</v>
+        <v>0.3777801990509033</v>
       </c>
       <c r="P1">
-        <v>0.7759232521057129</v>
+        <v>0.5046498775482178</v>
       </c>
     </row>
   </sheetData>

--- a/UI/DataCollected.xlsx
+++ b/UI/DataCollected.xlsx
@@ -359,49 +359,49 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.1650168895721436</v>
+        <v>0.2151403427124023</v>
       </c>
       <c r="C1">
-        <v>0.1823763847351074</v>
+        <v>0.2862262725830078</v>
       </c>
       <c r="D1">
-        <v>0.312694787979126</v>
+        <v>0.3079617023468018</v>
       </c>
       <c r="E1">
-        <v>0.2322466373443604</v>
+        <v>0.3019604682922363</v>
       </c>
       <c r="F1">
-        <v>0.1002087593078613</v>
+        <v>0.1795210838317871</v>
       </c>
       <c r="G1">
-        <v>0.1402652263641357</v>
+        <v>0.2303841114044189</v>
       </c>
       <c r="H1">
-        <v>-0.1370875835418701</v>
+        <v>-0.1047201156616211</v>
       </c>
       <c r="I1">
-        <v>-0.08343601226806641</v>
+        <v>-0.07293176651000977</v>
       </c>
       <c r="J1">
-        <v>-0.2282617092132568</v>
+        <v>-0.2441329956054688</v>
       </c>
       <c r="K1">
-        <v>-0.08824062347412109</v>
+        <v>-0.05684876441955566</v>
       </c>
       <c r="L1">
-        <v>-0.09113287925720215</v>
+        <v>-0.1795210838317871</v>
       </c>
       <c r="M1">
-        <v>0.4435493946075439</v>
+        <v>0.6895039081573486</v>
       </c>
       <c r="N1">
-        <v>0.4275882244110107</v>
+        <v>0.7017560005187988</v>
       </c>
       <c r="O1">
-        <v>0.3777801990509033</v>
+        <v>0.5393245220184326</v>
       </c>
       <c r="P1">
-        <v>0.5046498775482178</v>
+        <v>0.8630392551422119</v>
       </c>
     </row>
   </sheetData>
